--- a/BaswareAutomation/test/TestDataProvideBeleux.xlsx
+++ b/BaswareAutomation/test/TestDataProvideBeleux.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -167,24 +167,6 @@
     <t>SSP</t>
   </si>
   <si>
-    <t>BUILDINGS MAINTENANCE</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>EMEAAD\pbrard</t>
-  </si>
-  <si>
-    <t>Description PR2</t>
-  </si>
-  <si>
-    <t>Product 2</t>
-  </si>
-  <si>
-    <t>FA-LOGI</t>
-  </si>
-  <si>
     <t>https://voflusoprasttest.p2p.basware.com/edge</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
   </si>
   <si>
     <t>STANDARD</t>
-  </si>
-  <si>
-    <t>Logistic standard</t>
   </si>
   <si>
     <t>Agency/Site</t>
@@ -272,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,15 +275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -322,19 +292,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -619,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +614,7 @@
     <col min="23" max="23" width="7.42578125" customWidth="1"/>
     <col min="24" max="25" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="8"/>
+    <col min="27" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -666,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -693,10 +658,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>8</v>
@@ -716,14 +681,14 @@
       <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>53</v>
+      <c r="V1" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -736,8 +701,8 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>43</v>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -746,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -764,25 +729,25 @@
         <v>29</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>46</v>
+      <c r="Q2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>32</v>
@@ -797,10 +762,10 @@
         <v>31</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>34</v>
@@ -808,100 +773,19 @@
       <c r="Y2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/BaswareAutomation/test/TestDataProvideBeleux.xlsx
+++ b/BaswareAutomation/test/TestDataProvideBeleux.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Purchase requisition</t>
+  </si>
+  <si>
+    <t>EMEAAD\ncourtin</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,15 +780,96 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>